--- a/resources/mysql.xlsx
+++ b/resources/mysql.xlsx
@@ -5,17 +5,17 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D192D6D0-2854-8E41-B90D-89BA4F740C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{756C27C0-15D5-9F44-AB41-6EC5670C283F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anki" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="77" uniqueCount="64">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="180" uniqueCount="142">
   <si>
     <t>UDP</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -272,6 +272,318 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动客户端时，-h 后面添加 ip 地址，通信方式是什么</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机 -h 后面如果是 localhost 则是 socket file 通信，如果是 127.0.0.1 则是 TCP/IP 通信</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们希望只能本机访问，可以禁止使用 TCP/IP 通信</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysqld --skip-networking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 跳过网络请求方式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动选项方式正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-启动选项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>--启动选项=值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>--启动选项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>--值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>--启动选项[=值]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可读取的配置文件路径正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/my.cnf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/etc/mysql/my.cnf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/.my.cnf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>~/.mylogin.cnf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>$MYSQL_HOME/my.cnf</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCDE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL_HOME 是一个环境变量，该路径下的 my.cnf 配置，只能放启动服务器相关的选项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[server] (具体的启动选项)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mysqld] (具体的启动选项)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[client](具体的启动选项)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[mysql](具体的启动选项)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中的启动选项会划分成不同的组，以下组正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件中的选项，规则正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>option1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>--option1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>option2 = 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>option2=2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要选项值就直接用 option，选项值就是 option2=value，等号两边可以有空格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件优先级最高的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储字符集的含义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立字符与二进制数据的映射关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASCII 字符集收录的字符数，使用几个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个字节有几位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 个字符，1 个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>128 个字符，1 个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 个字符，1 个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>512 个字符，2 个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>latin1 字符集收录的字符数，使用几个字符编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7745 个字符，1/2 个字节编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容 ASCII 编码，变长编码方式，如果在 ASCII 中，则是 1 个字符，其它 2 个字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB2312 字符集收录的字符数，使用几个字符编码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBK 字符集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 GB2312 字符集进行扩充，兼容 GB2312</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>收录所有能想到的字符，还在扩充中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf8 字符集，以下说法正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容 ASCII 字符集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用变长编码方式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4 个字节</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf8mb3 字符集，以下说法正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能使用 1-3 个字节表示字符</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法存储 emoji 表情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>阉割版 utf8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了节约存储空间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 默认的 utf8 字符集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>utf8mb4 字符集，以下说法正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版 utf8 字符集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 1-4 个字节</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collation 是什么意思</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较规则</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较规则名称以其关联的字符集的名称开头</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collation 的说法正确的是 utf8_general_ci</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集名称后面是作用于哪种语言，general 是通用的规则</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀表示是否区分重音、大小写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较规则后缀规则正确的是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai accent insensitive 不区分重音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>as accent sensitive 区分重音</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ci case insensitive 不区分大小写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs case sensitive 区分大小写</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin binary 二进制方式比较</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -871,11 +1183,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1247,9 +1562,11 @@
     <col min="4" max="4" width="40.6640625" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1269,13 +1586,16 @@
         <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1291,14 +1611,14 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1311,11 +1631,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1334,11 +1654,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1357,11 +1677,11 @@
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1374,11 +1694,11 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1391,14 +1711,14 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1411,14 +1731,14 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1431,14 +1751,14 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1457,11 +1777,11 @@
       <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1480,14 +1800,14 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1506,11 +1826,11 @@
       <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1529,11 +1849,11 @@
       <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1543,8 +1863,422 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
